--- a/Facebook-index.xlsx
+++ b/Facebook-index.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$159</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Most</t>
   </si>
@@ -147,38 +147,110 @@
   </si>
   <si>
     <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>Merge k sorted list</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Search for a range</t>
+  </si>
+  <si>
+    <t>trap rian water</t>
+  </si>
+  <si>
+    <t>longest substring with at most k distinct characters</t>
+  </si>
+  <si>
+    <t>binary tree path</t>
+  </si>
+  <si>
+    <t>same tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>simplify path</t>
+  </si>
+  <si>
+    <t>sqrt(x)</t>
+  </si>
+  <si>
+    <t>merge interval</t>
+  </si>
+  <si>
+    <t>valid parentheses</t>
+  </si>
+  <si>
+    <t>merge two sorte list</t>
+  </si>
+  <si>
+    <t>median of two array</t>
+  </si>
+  <si>
+    <t>implement strStr()</t>
+  </si>
+  <si>
+    <t>flatten binary tree to list</t>
+  </si>
+  <si>
+    <t>best time to sell of buy stock</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>3 sum smaller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,10 +354,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,7 +368,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -568,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.2"/>
@@ -579,15 +654,18 @@
     <col min="1" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="36.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="29" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,20 +678,24 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="8">
         <v>43063</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="8">
         <v>43064</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="8">
         <v>43069</v>
       </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="10"/>
+      <c r="L1" s="8">
+        <v>43070</v>
+      </c>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -633,8 +715,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>158</v>
       </c>
       <c r="B3" s="2">
@@ -653,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>200</v>
       </c>
@@ -663,11 +745,17 @@
       <c r="C4" s="6">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>301</v>
       </c>
@@ -687,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>283</v>
       </c>
@@ -700,8 +788,11 @@
       <c r="D6" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>98</v>
       </c>
@@ -721,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>67</v>
       </c>
@@ -741,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>91</v>
       </c>
@@ -751,11 +842,17 @@
       <c r="C9" s="1">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -765,11 +862,17 @@
       <c r="C10" s="1">
         <v>26</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>560</v>
       </c>
@@ -779,11 +882,17 @@
       <c r="C11" s="1">
         <v>28</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>253</v>
       </c>
@@ -793,11 +902,14 @@
       <c r="C12" s="1">
         <v>33</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>314</v>
       </c>
@@ -810,8 +922,11 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>297</v>
       </c>
@@ -821,11 +936,17 @@
       <c r="C14" s="1">
         <v>43</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>543</v>
       </c>
@@ -838,14 +959,14 @@
       <c r="D15" s="1">
         <v>29</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>75</v>
       </c>
@@ -858,8 +979,11 @@
       <c r="D16" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>273</v>
       </c>
@@ -869,17 +993,17 @@
       <c r="C17" s="1">
         <v>50</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>33</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>621</v>
       </c>
@@ -889,11 +1013,17 @@
       <c r="C18" s="1">
         <v>56</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>133</v>
       </c>
@@ -906,8 +1036,11 @@
       <c r="D19" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>349</v>
       </c>
@@ -917,12 +1050,15 @@
       <c r="C20" s="1">
         <v>67</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -931,11 +1067,17 @@
       <c r="C21" s="1">
         <v>68</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>211</v>
       </c>
@@ -948,8 +1090,11 @@
       <c r="D22" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>278</v>
       </c>
@@ -959,7 +1104,7 @@
       <c r="C23" s="1">
         <v>71</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -969,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -989,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>215</v>
       </c>
@@ -1002,8 +1147,11 @@
       <c r="D25" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>236</v>
       </c>
@@ -1016,15 +1164,15 @@
       <c r="D26" s="3">
         <v>50</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>121</v>
       </c>
       <c r="B27" s="2">
@@ -1033,11 +1181,17 @@
       <c r="C27" s="1">
         <v>80</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>76</v>
       </c>
@@ -1047,11 +1201,14 @@
       <c r="C28" s="1">
         <v>85</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>146</v>
       </c>
@@ -1071,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>125</v>
       </c>
@@ -1081,11 +1238,14 @@
       <c r="C30" s="1">
         <v>90</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>311</v>
       </c>
@@ -1095,12 +1255,18 @@
       <c r="C31" s="1">
         <v>91</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>21</v>
       </c>
       <c r="B32" s="2">
@@ -1109,12 +1275,18 @@
       <c r="C32" s="1">
         <v>98</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="F32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>139</v>
       </c>
       <c r="B33" s="2">
@@ -1126,14 +1298,14 @@
       <c r="D33" s="3">
         <v>75</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>160</v>
       </c>
@@ -1143,12 +1315,18 @@
       <c r="C34" s="1">
         <v>117</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>56</v>
       </c>
       <c r="B35" s="2">
@@ -1167,8 +1345,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>257</v>
       </c>
       <c r="B36" s="1">
@@ -1187,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>477</v>
       </c>
@@ -1200,9 +1378,12 @@
       <c r="D37" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>94</v>
       </c>
       <c r="B38" s="1">
@@ -1211,11 +1392,14 @@
       <c r="C38" s="1">
         <v>128</v>
       </c>
-      <c r="D38" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="3">
+        <v>81</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -1225,12 +1409,18 @@
       <c r="C39" s="1">
         <v>133</v>
       </c>
-      <c r="D39" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="D39" s="4">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>34</v>
       </c>
       <c r="B40" s="2">
@@ -1240,7 +1430,7 @@
         <v>139</v>
       </c>
       <c r="D40" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -1249,8 +1439,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>114</v>
       </c>
       <c r="B41" s="1">
@@ -1260,7 +1450,7 @@
         <v>146</v>
       </c>
       <c r="D41" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>19</v>
@@ -1269,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>348</v>
       </c>
@@ -1280,7 +1470,7 @@
         <v>157</v>
       </c>
       <c r="D42" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -1289,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="52" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>157</v>
       </c>
@@ -1299,12 +1489,18 @@
       <c r="C43" s="1">
         <v>158</v>
       </c>
-      <c r="D43" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="D43" s="3">
+        <v>93</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="1">
@@ -1314,7 +1510,7 @@
         <v>161</v>
       </c>
       <c r="D44" s="3">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>15</v>
@@ -1323,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>78</v>
       </c>
@@ -1333,11 +1529,17 @@
       <c r="C45" s="1">
         <v>168</v>
       </c>
-      <c r="D45" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D45" s="3">
+        <v>98</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="52" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -1347,11 +1549,17 @@
       <c r="C46" s="1">
         <v>173</v>
       </c>
-      <c r="D46" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>210</v>
       </c>
@@ -1361,12 +1569,18 @@
       <c r="C47" s="1">
         <v>200</v>
       </c>
-      <c r="D47" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="D47" s="3">
+        <v>102</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="1">
@@ -1376,10 +1590,13 @@
         <v>206</v>
       </c>
       <c r="D48" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>282</v>
       </c>
@@ -1389,11 +1606,17 @@
       <c r="C49" s="1">
         <v>208</v>
       </c>
-      <c r="D49" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D49" s="3">
+        <v>114</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>108</v>
       </c>
@@ -1404,10 +1627,13 @@
         <v>209</v>
       </c>
       <c r="D50" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>639</v>
       </c>
@@ -1417,11 +1643,14 @@
       <c r="C51" s="1">
         <v>210</v>
       </c>
-      <c r="D51" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D51" s="3">
+        <v>121</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>141</v>
       </c>
@@ -1431,11 +1660,14 @@
       <c r="C52" s="1">
         <v>211</v>
       </c>
-      <c r="D52" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D52" s="4">
+        <v>124</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>124</v>
       </c>
@@ -1446,10 +1678,13 @@
         <v>215</v>
       </c>
       <c r="D53" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>398</v>
       </c>
@@ -1459,18 +1694,18 @@
       <c r="C54" s="1">
         <v>218</v>
       </c>
-      <c r="D54" s="3">
-        <v>133</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="D54" s="1">
+        <v>127</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>20</v>
       </c>
       <c r="B55" s="2">
@@ -1480,11 +1715,17 @@
         <v>221</v>
       </c>
       <c r="D55" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+        <v>128</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>102</v>
       </c>
       <c r="B56" s="1">
@@ -1493,25 +1734,28 @@
       <c r="C56" s="1">
         <v>234</v>
       </c>
-      <c r="D56" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>124</v>
-      </c>
+      <c r="D56" s="3">
+        <v>133</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>273</v>
       </c>
       <c r="C57" s="1">
         <v>235</v>
       </c>
-      <c r="D57" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D57" s="3">
+        <v>139</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>143</v>
       </c>
@@ -1522,11 +1766,14 @@
         <v>236</v>
       </c>
       <c r="D58" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+        <v>141</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>654</v>
       </c>
       <c r="B59" s="1">
@@ -1536,11 +1783,14 @@
         <v>238</v>
       </c>
       <c r="D59" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+        <v>143</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>71</v>
       </c>
       <c r="B60" s="1">
@@ -1550,10 +1800,13 @@
         <v>252</v>
       </c>
       <c r="D60" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -1563,12 +1816,18 @@
       <c r="C61" s="1">
         <v>253</v>
       </c>
-      <c r="D61" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="D61" s="3">
+        <v>153</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>88</v>
       </c>
       <c r="B62" s="1">
@@ -1578,10 +1837,13 @@
         <v>257</v>
       </c>
       <c r="D62" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>93</v>
       </c>
@@ -1592,10 +1854,13 @@
         <v>261</v>
       </c>
       <c r="D63" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>10</v>
       </c>
@@ -1606,10 +1871,13 @@
         <v>265</v>
       </c>
       <c r="D64" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41</v>
       </c>
@@ -1620,11 +1888,14 @@
         <v>269</v>
       </c>
       <c r="D65" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+        <v>160</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>261</v>
       </c>
       <c r="B66" s="2">
@@ -1633,8 +1904,8 @@
       <c r="C66" s="1">
         <v>273</v>
       </c>
-      <c r="D66" s="3">
-        <v>200</v>
+      <c r="D66" s="1">
+        <v>161</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>12</v>
@@ -1643,8 +1914,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>23</v>
       </c>
       <c r="B67" s="2">
@@ -1654,10 +1925,13 @@
         <v>274</v>
       </c>
       <c r="D67" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>689</v>
       </c>
@@ -1668,10 +1942,13 @@
         <v>275</v>
       </c>
       <c r="D68" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>209</v>
       </c>
@@ -1681,12 +1958,15 @@
       <c r="C69" s="1">
         <v>277</v>
       </c>
-      <c r="D69" s="1">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="D69" s="3">
+        <v>200</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>100</v>
       </c>
       <c r="B70" s="1">
@@ -1696,11 +1976,14 @@
         <v>278</v>
       </c>
       <c r="D70" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+        <v>206</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>259</v>
       </c>
       <c r="B71" s="2">
@@ -1709,8 +1992,8 @@
       <c r="C71" s="1">
         <v>282</v>
       </c>
-      <c r="D71" s="3">
-        <v>211</v>
+      <c r="D71" s="1">
+        <v>208</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -1719,8 +2002,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>81</v>
       </c>
       <c r="B72" s="1">
@@ -1730,16 +2013,16 @@
         <v>283</v>
       </c>
       <c r="D72" s="1">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>340</v>
       </c>
@@ -1750,10 +2033,13 @@
         <v>285</v>
       </c>
       <c r="D73" s="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>173</v>
       </c>
@@ -1763,11 +2049,14 @@
       <c r="C74" s="1">
         <v>286</v>
       </c>
-      <c r="D74" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D74" s="7">
+        <v>211</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -1778,11 +2067,17 @@
         <v>297</v>
       </c>
       <c r="D75" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+        <v>215</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>153</v>
       </c>
       <c r="B76" s="1">
@@ -1791,8 +2086,8 @@
       <c r="C76" s="1">
         <v>301</v>
       </c>
-      <c r="D76" s="3">
-        <v>236</v>
+      <c r="D76" s="1">
+        <v>218</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>13</v>
@@ -1801,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>636</v>
       </c>
@@ -1809,143 +2104,179 @@
         <v>311</v>
       </c>
       <c r="D77" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>314</v>
       </c>
-      <c r="D78" s="3">
-        <v>252</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="D78" s="1">
+        <v>234</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
         <v>325</v>
       </c>
       <c r="D79" s="3">
-        <v>253</v>
-      </c>
-      <c r="H79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
         <v>334</v>
       </c>
       <c r="D80" s="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>341</v>
       </c>
-      <c r="D81" s="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D81" s="3">
+        <v>252</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
         <v>377</v>
       </c>
-      <c r="D82" s="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D82" s="3">
+        <v>253</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
         <v>380</v>
       </c>
-      <c r="D83" s="1">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D83" s="3">
+        <v>257</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
         <v>398</v>
       </c>
-      <c r="D84" s="1">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" ht="52" x14ac:dyDescent="0.2">
+      <c r="D84" s="3">
+        <v>259</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>404</v>
       </c>
-      <c r="D85" s="1">
-        <v>273</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="D85" s="3">
+        <v>261</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>410</v>
       </c>
       <c r="D86" s="1">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
         <v>461</v>
       </c>
       <c r="D87" s="1">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C88" s="1">
         <v>477</v>
       </c>
       <c r="D88" s="1">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C89" s="1">
         <v>494</v>
       </c>
       <c r="D89" s="1">
-        <v>278</v>
-      </c>
-      <c r="H89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C90" s="1">
         <v>523</v>
       </c>
       <c r="D90" s="1">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C91" s="1">
         <v>525</v>
       </c>
-      <c r="D91" s="3">
-        <v>283</v>
+      <c r="D91" s="1">
+        <v>277</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>14</v>
@@ -1954,238 +2285,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C92" s="1">
         <v>534</v>
       </c>
-      <c r="D92" s="1">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D92" s="3">
+        <v>278</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C93" s="1">
         <v>535</v>
       </c>
       <c r="D93" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" ht="52" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C94" s="1">
         <v>543</v>
       </c>
-      <c r="D94" s="1">
-        <v>297</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="D94" s="3">
+        <v>283</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C95" s="1">
         <v>554</v>
       </c>
       <c r="D95" s="1">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" ht="78" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" ht="52" x14ac:dyDescent="0.2">
       <c r="C96" s="1">
         <v>572</v>
       </c>
-      <c r="D96" s="3">
-        <v>314</v>
-      </c>
-      <c r="H96" s="1" t="s">
+      <c r="D96" s="1">
+        <v>286</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" ht="52" x14ac:dyDescent="0.2">
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" ht="52" x14ac:dyDescent="0.2">
       <c r="C97" s="1">
         <v>578</v>
       </c>
-      <c r="D97" s="3">
-        <v>325</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="D97" s="1">
+        <v>297</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C98" s="1">
         <v>597</v>
       </c>
       <c r="D98" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" ht="52" x14ac:dyDescent="0.2">
       <c r="C99" s="1">
         <v>602</v>
       </c>
-      <c r="D99" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D99" s="3">
+        <v>314</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C100" s="1">
         <v>621</v>
       </c>
-      <c r="D100" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D100" s="3">
+        <v>325</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C101" s="1">
         <v>636</v>
       </c>
-      <c r="D101" s="3">
-        <v>348</v>
-      </c>
-      <c r="J101" s="1" t="s">
+      <c r="D101" s="1">
+        <v>334</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" ht="52" x14ac:dyDescent="0.2">
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C102" s="1">
         <v>637</v>
       </c>
-      <c r="D102" s="3">
-        <v>349</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="D102" s="1">
+        <v>340</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C103" s="1">
         <v>639</v>
       </c>
       <c r="D103" s="1">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C104" s="1">
         <v>642</v>
       </c>
-      <c r="D104" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D104" s="3">
+        <v>348</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C105" s="1">
         <v>647</v>
       </c>
-      <c r="D105" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D105" s="3">
+        <v>349</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C106" s="1">
         <v>653</v>
       </c>
       <c r="D106" s="1">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C107" s="1">
         <v>670</v>
       </c>
       <c r="D107" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C108" s="1">
         <v>673</v>
       </c>
       <c r="D108" s="1">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C109" s="1">
         <v>674</v>
       </c>
       <c r="D109" s="1">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C110" s="1">
         <v>680</v>
       </c>
       <c r="D110" s="1">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C111" s="1">
         <v>689</v>
       </c>
       <c r="D111" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C112" s="1">
         <v>714</v>
       </c>
       <c r="D112" s="1">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" s="1">
         <v>721</v>
       </c>
       <c r="D113" s="1">
+        <v>494</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D114" s="1">
+        <v>523</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D115" s="1">
+        <v>525</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D116" s="1">
         <v>534</v>
       </c>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D114" s="1">
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D117" s="1">
         <v>535</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" ht="52" x14ac:dyDescent="0.2">
-      <c r="D115" s="3">
-        <v>543</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D116" s="1">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="3">
-        <v>560</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>21</v>
@@ -2194,126 +2585,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D118" s="1">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D118" s="3">
+        <v>543</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D119" s="1">
+        <v>554</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D120" s="3">
+        <v>560</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D121" s="1">
         <v>572</v>
       </c>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="1">
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D122" s="1">
         <v>578</v>
       </c>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="1">
+      <c r="F122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D123" s="1">
         <v>597</v>
       </c>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D121" s="1">
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D124" s="1">
         <v>602</v>
       </c>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D122" s="1">
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D125" s="1">
         <v>621</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D123" s="1">
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D126" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D124" s="1">
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D127" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="1">
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D128" s="1">
         <v>639</v>
       </c>
-    </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D126" s="1">
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D129" s="1">
         <v>642</v>
       </c>
-    </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D127" s="1">
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D130" s="1">
         <v>647</v>
       </c>
-    </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D128" s="1">
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D131" s="1">
         <v>653</v>
       </c>
-    </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D129" s="1">
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D132" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D130" s="1">
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D133" s="1">
         <v>670</v>
       </c>
-    </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D131" s="1">
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D134" s="1">
         <v>673</v>
       </c>
-    </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D132" s="1">
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D135" s="1">
         <v>674</v>
       </c>
-    </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D133" s="1">
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D136" s="1">
         <v>680</v>
       </c>
-    </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D134" s="1">
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D137" s="1">
         <v>689</v>
       </c>
-    </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D135" s="1">
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D138" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D136" s="1">
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D139" s="1">
         <v>721</v>
       </c>
-    </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G137" s="1">
-        <f>SUM(G2:G136)</f>
-        <v>17</v>
-      </c>
-      <c r="I137" s="1">
-        <f>SUM(I2:I136)</f>
-        <v>8</v>
+      <c r="G139" s="1">
+        <f>SUM(G2:G138)</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:B77">
     <sortCondition ref="B25"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>